--- a/TemporalGraphCube/exp/minlevel.xlsx
+++ b/TemporalGraphCube/exp/minlevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graduate\project\tgraphcube_with_git\TemporalGraphCube\exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01421CB0-5E1E-42A5-A44F-C2EB0EC60329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8E111-7375-40CF-8F5B-E6BE8FFB565F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>short_unfair2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E6:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -493,6 +493,9 @@
       <c r="H15">
         <v>20909</v>
       </c>
+      <c r="I15">
+        <v>23543</v>
+      </c>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E16">
@@ -541,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22603</v>
-      </c>
-      <c r="I19" t="s">
-        <v>5</v>
+        <v>21925</v>
+      </c>
+      <c r="I19">
+        <v>20962</v>
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.4">
@@ -593,8 +596,8 @@
       <c r="H23">
         <v>26996</v>
       </c>
-      <c r="I23" t="s">
-        <v>5</v>
+      <c r="I23">
+        <v>21769</v>
       </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.4">

--- a/TemporalGraphCube/exp/minlevel.xlsx
+++ b/TemporalGraphCube/exp/minlevel.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graduate\project\tgraphcube_with_git\TemporalGraphCube\exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8E111-7375-40CF-8F5B-E6BE8FFB565F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC7202-BDC2-40E5-A483-D9840091CA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>short_unfair2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +57,10 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short_unfair2_left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,20 +386,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E6:I27"/>
+  <dimension ref="E6:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
         <v>1</v>
       </c>
@@ -400,7 +416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E8">
         <v>6</v>
       </c>
@@ -413,8 +429,15 @@
       <c r="H8">
         <v>282009</v>
       </c>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J8">
+        <v>282009</v>
+      </c>
+      <c r="K8">
+        <f>J8+309141</f>
+        <v>591150</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F9">
         <v>2</v>
       </c>
@@ -424,8 +447,15 @@
       <c r="H9">
         <v>302775</v>
       </c>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J9">
+        <v>302775</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K22" si="0">J9+309141</f>
+        <v>611916</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F10">
         <v>3</v>
       </c>
@@ -435,8 +465,15 @@
       <c r="H10">
         <v>291262</v>
       </c>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J10">
+        <v>291262</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>600403</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F11">
         <v>4</v>
       </c>
@@ -446,8 +483,15 @@
       <c r="H11">
         <v>69451</v>
       </c>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J11">
+        <v>69451</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>378592</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E12">
         <v>8</v>
       </c>
@@ -460,8 +504,15 @@
       <c r="H12">
         <v>278336</v>
       </c>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J12">
+        <v>278336</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>587477</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F13">
         <v>2</v>
       </c>
@@ -471,8 +522,15 @@
       <c r="H13">
         <v>280375</v>
       </c>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J13">
+        <v>280375</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>589516</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F14">
         <v>3</v>
       </c>
@@ -482,8 +540,15 @@
       <c r="H14">
         <v>248184</v>
       </c>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J14">
+        <v>248184</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>557325</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F15">
         <v>4</v>
       </c>
@@ -496,8 +561,15 @@
       <c r="I15">
         <v>23543</v>
       </c>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J15">
+        <v>20909</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>330050</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E16">
         <v>10</v>
       </c>
@@ -513,8 +585,15 @@
       <c r="I16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J16">
+        <v>287424</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>596565</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F17">
         <v>2</v>
       </c>
@@ -524,8 +603,15 @@
       <c r="H17">
         <v>277572</v>
       </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J17">
+        <v>277572</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>586713</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F18">
         <v>3</v>
       </c>
@@ -535,8 +621,15 @@
       <c r="H18">
         <v>213886</v>
       </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J18">
+        <v>213886</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>523027</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F19">
         <v>4</v>
       </c>
@@ -549,8 +642,15 @@
       <c r="I19">
         <v>20962</v>
       </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J19">
+        <v>17802</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>326943</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E20">
         <v>12</v>
       </c>
@@ -563,8 +663,15 @@
       <c r="H20">
         <v>135860</v>
       </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J20">
+        <v>135860</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>445001</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F21">
         <v>2</v>
       </c>
@@ -574,8 +681,15 @@
       <c r="H21">
         <v>276062</v>
       </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J21">
+        <v>276062</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>585203</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F22">
         <v>3</v>
       </c>
@@ -585,8 +699,15 @@
       <c r="H22">
         <v>130020</v>
       </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J22">
+        <v>130020</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>439161</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F23">
         <v>4</v>
       </c>
@@ -599,8 +720,15 @@
       <c r="I23">
         <v>21769</v>
       </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J23">
+        <v>5195</v>
+      </c>
+      <c r="K23">
+        <f>J23+185074</f>
+        <v>190269</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E24">
         <v>14</v>
       </c>
@@ -613,8 +741,15 @@
       <c r="H24">
         <v>84032</v>
       </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J24">
+        <v>84032</v>
+      </c>
+      <c r="K24">
+        <f>J24+309141</f>
+        <v>393173</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F25">
         <v>2</v>
       </c>
@@ -624,8 +759,15 @@
       <c r="H25">
         <v>259318</v>
       </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J25">
+        <v>259318</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:K26" si="1">J25+309141</f>
+        <v>568459</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F26">
         <v>3</v>
       </c>
@@ -635,8 +777,15 @@
       <c r="H26">
         <v>84907</v>
       </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="J26">
+        <v>84907</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>394048</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.4">
       <c r="F27">
         <v>4</v>
       </c>
@@ -648,6 +797,13 @@
       </c>
       <c r="I27" t="s">
         <v>5</v>
+      </c>
+      <c r="J27">
+        <v>4236</v>
+      </c>
+      <c r="K27">
+        <f>J27+185074</f>
+        <v>189310</v>
       </c>
     </row>
   </sheetData>
